--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19260" windowHeight="7695"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="19260" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>Prawdopodobieństwo mutacji</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>czas[s]</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -72,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -368,15 +375,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:11">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -395,8 +406,20 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:7">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
       <c r="B2">
         <v>1</v>
       </c>
@@ -416,7 +439,7 @@
         <v>4859</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:11">
       <c r="B3">
         <v>100</v>
       </c>
@@ -429,8 +452,27 @@
       <c r="E3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="F3">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>2892</v>
+      </c>
+      <c r="H3">
+        <v>326</v>
+      </c>
+      <c r="I3">
+        <v>2908</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="K3">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4">
         <v>500</v>
       </c>
@@ -443,8 +485,15 @@
       <c r="E4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="F4">
+        <f>27*60</f>
+        <v>1620</v>
+      </c>
+      <c r="G4">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5">
         <v>100</v>
       </c>
@@ -457,8 +506,17 @@
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="F5">
+        <v>323</v>
+      </c>
+      <c r="G5">
+        <v>2890</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.25486111111111109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6">
         <v>100</v>
       </c>
@@ -472,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:11">
       <c r="B7">
         <v>1</v>
       </c>
@@ -490,6 +548,26 @@
       </c>
       <c r="G7">
         <v>3366</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>3224</v>
       </c>
     </row>
   </sheetData>
@@ -499,12 +577,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="7.75" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>318</v>
+      </c>
+      <c r="G3">
+        <v>317</v>
+      </c>
+      <c r="I3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>25*60+49</f>
+        <v>1549</v>
+      </c>
+      <c r="G4">
+        <f>25*60+55</f>
+        <v>1555</v>
+      </c>
+      <c r="I4">
+        <f>25*60+51</f>
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>308</v>
+      </c>
+      <c r="G5">
+        <v>306</v>
+      </c>
+      <c r="I5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>315</v>
+      </c>
+      <c r="G6">
+        <v>316</v>
+      </c>
+      <c r="I6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>306</v>
+      </c>
+      <c r="G7">
+        <v>308</v>
+      </c>
+      <c r="I7">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
